--- a/CW2/CSV/Final hyperparameters for each setting.xlsx
+++ b/CW2/CSV/Final hyperparameters for each setting.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Masters Program Study\Neural Computation\NeuralComp-Coursework-main\NeuralComp-Coursework-main\CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0B0835-2924-429A-9A0B-781D2B85FD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E698F2-41DA-4C61-BE0A-B120B0F1231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20250" yWindow="0" windowWidth="29040" windowHeight="16200" xr2:uid="{75BE8319-9FC6-4AD4-9872-3EC84876900D}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75BE8319-9FC6-4AD4-9872-3EC84876900D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Learning Rate v Performance" sheetId="2" r:id="rId2"/>
+    <sheet name="Batch Size v Performance" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$A$1:$E$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -112,6 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,12 +146,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -164,6 +175,2343 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Learning Rate v Performance'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1124671916010498E-2"/>
+                  <c:y val="0.1311898512685914"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Learning Rate v Performance'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Learning Rate v Performance'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.85760374100000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84788548200000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84419357399999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83946288700000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83219158999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83103691099999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83039205900000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82990266300000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82466187599999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81694187900000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81451496000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79104700299999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77156241199999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73442755800000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69259372799999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69190870000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59362596999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53364979099999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA5E-4DE9-A0D1-217FED3FCD44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="378539760"/>
+        <c:axId val="271083592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="378539760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Learning Rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="271083592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="271083592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Validation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378539760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Batch Size v Performance'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8502843394575679E-2"/>
+                  <c:y val="0.16708187518226889"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Batch Size v Performance'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Batch Size v Performance'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.85760374100000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84788548200000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84419357399999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83946288700000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83219158999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83103691099999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83039205900000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82990266300000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82466187599999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81694187900000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81451496000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79104700299999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77156241199999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73442755800000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69259372799999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69190870000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59362596999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53364979099999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEC2-4401-9020-E2EF3C195896}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="462826544"/>
+        <c:axId val="462829168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="462826544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Batch</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462829168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462829168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Validation Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462826544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DB92E4-4F1C-401D-81B3-BCCFA66A2C7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36917F4A-982C-49FF-8A77-08E824D2E496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,347 +2813,682 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A07864-8660-46CF-89FD-EFA4988D50A6}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.85760374100000003</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="E2" s="1">
         <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.85760374100000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.84788548200000002</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="E3" s="1">
         <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.84788548200000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.84419357399999995</v>
+      </c>
+      <c r="D4" s="3">
         <v>1E-3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="E4" s="1">
         <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.84419357399999995</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.83946288700000005</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="E5" s="1">
         <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.83946288700000005</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.83219158999999998</v>
+      </c>
+      <c r="D6" s="3">
         <v>0.1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="E6" s="1">
         <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.83219158999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.83103691099999999</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.01</v>
       </c>
-      <c r="B7" s="1">
+      <c r="E7" s="1">
         <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.83103691099999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.83039205900000002</v>
+      </c>
+      <c r="D8" s="3">
         <v>1E-4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="E8" s="1">
         <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.83039205900000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.82990266300000004</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="E9" s="1">
         <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.82990266300000004</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.82466187599999996</v>
+      </c>
+      <c r="D10" s="3">
         <v>0.1</v>
       </c>
-      <c r="B10" s="1">
+      <c r="E10" s="1">
         <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.82466187599999996</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.81694187900000004</v>
+      </c>
+      <c r="D11" s="3">
         <v>0.3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="E11" s="1">
         <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.81694187900000004</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.81451496000000001</v>
+      </c>
+      <c r="D12" s="3">
         <v>1E-3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="E12" s="1">
         <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.81451496000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.79104700299999997</v>
+      </c>
+      <c r="D13" s="3">
         <v>1E-4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="E13" s="1">
         <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.79104700299999997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.77156241199999998</v>
+      </c>
+      <c r="D14" s="3">
         <v>1E-3</v>
       </c>
-      <c r="B14" s="1">
+      <c r="E14" s="1">
         <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.77156241199999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.73442755800000004</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.1</v>
       </c>
-      <c r="B15" s="1">
+      <c r="E15" s="1">
         <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.73442755800000004</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.69259372799999996</v>
+      </c>
+      <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
+      <c r="E16" s="1">
         <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.69259372799999996</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.69190870000000004</v>
+      </c>
+      <c r="D17" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B17" s="1">
+      <c r="E17" s="1">
         <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.69190870000000004</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.59362596999999995</v>
+      </c>
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
+      <c r="E18" s="1">
         <v>4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.59362596999999995</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.53364979099999998</v>
+      </c>
+      <c r="D19" s="3">
         <v>1E-4</v>
       </c>
-      <c r="B19" s="1">
+      <c r="E19" s="1">
         <v>8</v>
       </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.53364979099999998</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:E19" xr:uid="{B956BD02-FD80-4262-9399-128E847894BE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E19">
-      <sortCondition descending="1" ref="E1:E19"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E19" xr:uid="{D9DE3853-0DE6-4DE3-A366-6573738558B3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12239CD-B5DB-4199-A7F3-83625A35EDCE}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.85760374100000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.84788548200000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.84419357399999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.83946288700000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.83219158999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.83103691099999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.83039205900000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.82990266300000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.82466187599999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.81694187900000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.81451496000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.79104700299999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.77156241199999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.73442755800000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.69259372799999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.69190870000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.59362596999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.53364979099999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196651C-D734-4F65-9975-26568E24B11B}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.85760374100000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.84788548200000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.84419357399999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.83946288700000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.83219158999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.83103691099999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.83039205900000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.82990266300000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.82466187599999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.81694187900000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.81451496000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.79104700299999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.77156241199999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.73442755800000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.69259372799999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.69190870000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.59362596999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.53364979099999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CW2/CSV/Final hyperparameters for each setting.xlsx
+++ b/CW2/CSV/Final hyperparameters for each setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Masters Program Study\Neural Computation\NeuralComp-Coursework-main\NeuralComp-Coursework-main\CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E698F2-41DA-4C61-BE0A-B120B0F1231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5D97F8-FBE2-4285-8C10-D85872B7D170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75BE8319-9FC6-4AD4-9872-3EC84876900D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -109,13 +109,19 @@
   <si>
     <t>Epoch</t>
   </si>
+  <si>
+    <t>The one we're taking</t>
+  </si>
+  <si>
+    <t>Change to 25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -126,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,10 +166,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2811,7 +2829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A07864-8660-46CF-89FD-EFA4988D50A6}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2824,7 +2842,7 @@
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2841,126 +2859,129 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>0.85760374100000003</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>0.2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.84788548200000002</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.85176200000000002</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>0.84419357399999995</v>
+        <v>0.84788548200000002</v>
       </c>
       <c r="D4" s="3">
-        <v>1E-3</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.84419357399999995</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="6">
         <v>0.83946288700000005</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="6">
         <v>0.3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.83219158999999998</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.83219158999999998</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>0.83103691099999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>0.01</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.83039205900000002</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1E-4</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -2976,8 +2997,11 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2993,8 +3017,11 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -3011,7 +3038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3027,8 +3054,11 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25</v>
       </c>
@@ -3045,7 +3075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3061,8 +3091,11 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>25</v>
       </c>
@@ -3079,7 +3112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -3095,8 +3128,11 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -3112,8 +3148,11 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -3129,8 +3168,11 @@
       <c r="E18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -3146,9 +3188,16 @@
       <c r="E19" s="1">
         <v>8</v>
       </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E19" xr:uid="{D9DE3853-0DE6-4DE3-A366-6573738558B3}"/>
+  <autoFilter ref="A1:E19" xr:uid="{D9DE3853-0DE6-4DE3-A366-6573738558B3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
+      <sortCondition descending="1" ref="C1:C19"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CW2/CSV/Final hyperparameters for each setting.xlsx
+++ b/CW2/CSV/Final hyperparameters for each setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Masters Program Study\Neural Computation\NeuralComp-Coursework-main\NeuralComp-Coursework-main\CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5D97F8-FBE2-4285-8C10-D85872B7D170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1950A29-C7A2-4260-BDBF-41D4ADA15097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75BE8319-9FC6-4AD4-9872-3EC84876900D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -110,10 +110,10 @@
     <t>Epoch</t>
   </si>
   <si>
-    <t>The one we're taking</t>
+    <t>pk</t>
   </si>
   <si>
-    <t>Change to 25</t>
+    <t>Current Final</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,12 +141,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -154,11 +166,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,17 +221,66 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -322,58 +420,58 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>1E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1E-4</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,58 +483,58 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.85760374100000003</c:v>
+                  <c:v>0.83946288700000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84788548200000002</c:v>
+                  <c:v>0.83039205900000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84419357399999995</c:v>
+                  <c:v>0.82990266300000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83946288700000005</c:v>
+                  <c:v>0.82466187599999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83219158999999998</c:v>
+                  <c:v>0.81451496000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83103691099999999</c:v>
+                  <c:v>0.80356126019104002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83039205900000002</c:v>
+                  <c:v>0.79810000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82990266300000004</c:v>
+                  <c:v>0.79537979999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82466187599999996</c:v>
+                  <c:v>0.77156241199999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81694187900000004</c:v>
+                  <c:v>0.74838211600000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81451496000000001</c:v>
+                  <c:v>0.69259372799999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79104700299999997</c:v>
+                  <c:v>0.69190870000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77156241199999998</c:v>
+                  <c:v>0.68018109400000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73442755800000004</c:v>
+                  <c:v>0.59362596999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.69259372799999996</c:v>
+                  <c:v>0.53364979099999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69190870000000004</c:v>
+                  <c:v>0.528675354573935</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59362596999999995</c:v>
+                  <c:v>0.45131596299999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.53364979099999998</c:v>
+                  <c:v>0.28040999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,40 +1008,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
@@ -952,16 +1050,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,58 +1071,58 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.85760374100000003</c:v>
+                  <c:v>0.83946288700000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84788548200000002</c:v>
+                  <c:v>0.83039205900000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84419357399999995</c:v>
+                  <c:v>0.82990266300000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83946288700000005</c:v>
+                  <c:v>0.82466187599999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83219158999999998</c:v>
+                  <c:v>0.81451496000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83103691099999999</c:v>
+                  <c:v>0.80356126019104002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83039205900000002</c:v>
+                  <c:v>0.79810000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82990266300000004</c:v>
+                  <c:v>0.79537979999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82466187599999996</c:v>
+                  <c:v>0.77156241199999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81694187900000004</c:v>
+                  <c:v>0.74838211600000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81451496000000001</c:v>
+                  <c:v>0.69259372799999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79104700299999997</c:v>
+                  <c:v>0.69190870000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77156241199999998</c:v>
+                  <c:v>0.68018109400000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73442755800000004</c:v>
+                  <c:v>0.59362596999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.69259372799999996</c:v>
+                  <c:v>0.53364979099999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69190870000000004</c:v>
+                  <c:v>0.528675354573935</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59362596999999995</c:v>
+                  <c:v>0.45131596299999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.53364979099999998</c:v>
+                  <c:v>0.28040999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,6 +2630,20 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{477A38C5-54A8-4CA5-A09E-C290888FDD8F}" name="Table1" displayName="Table1" ref="H8:L11" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="H8:L11" xr:uid="{ACCD2CB4-79F1-4F9B-9BE9-99E6F7AF4968}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D68026F6-84EA-4C33-8C8E-238A0847004E}" name="Epoch" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5AC9EE0A-3C75-46B2-BC2C-50DCA36BC052}" name="name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{02F63DBD-B104-435F-B722-66D9D25B6364}" name="dice" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7C21F442-6E04-4D81-87DE-EB08FA7CEDC5}" name="Learning Rate" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{027F001A-63D1-4341-B35E-BFA0B9D35B22}" name="Batch Size" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2829,9 +2941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A07864-8660-46CF-89FD-EFA4988D50A6}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2840,9 +2954,15 @@
     <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2859,337 +2979,376 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.83946288700000005</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.83039205900000002</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.82990266300000004</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.82466187599999996</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.81451496000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6">
-        <v>0.85760374100000003</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C7" s="6">
+        <v>0.80356126019104002</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.85176200000000002</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1E-4</v>
-      </c>
-      <c r="E3" s="5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.84788548200000002</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.84419357399999995</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.83946288700000005</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.83219158999999998</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.83103691099999999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.79537979999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16">
+        <v>25</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.82990266300000004</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="J9" s="14"/>
+      <c r="K9" s="13">
         <v>0.1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="L9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4">
-        <v>0.82466187599999996</v>
+        <v>0.77156241199999998</v>
       </c>
       <c r="D10" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="16">
+        <v>25</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0.85176200000000002</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.74838211600000004</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>25</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.84106423299999999</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="15">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.81694187900000004</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.81451496000000001</v>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.69259372799999996</v>
       </c>
       <c r="D12" s="3">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>0.79104700299999997</v>
+        <v>0.69190870000000004</v>
       </c>
       <c r="D13" s="3">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.77156241199999998</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.68018109400000004</v>
+      </c>
+      <c r="D14" s="7">
         <v>1E-3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>0.73442755800000004</v>
+        <v>0.59362596999999995</v>
       </c>
       <c r="D15" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3">
-        <v>0.69259372799999996</v>
+        <v>0.53364979099999998</v>
       </c>
       <c r="D16" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.528675354573935</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.45131596299999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.69190870000000004</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.59362596999999995</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.53364979099999998</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.43164000000000002</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3200,6 +3359,9 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3225,98 +3387,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="B2" s="3">
-        <v>0.85760374100000003</v>
+        <v>0.83946288700000005</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.2</v>
+        <v>1E-4</v>
       </c>
       <c r="B3" s="3">
-        <v>0.84788548200000002</v>
+        <v>0.83039205900000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="B4" s="3">
-        <v>0.84419357399999995</v>
+        <v>0.82990266300000004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="B5" s="4">
-        <v>0.83946288700000005</v>
+        <v>0.82466187599999996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="B6" s="3">
-        <v>0.83219158999999998</v>
+        <v>0.81451496000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="B7" s="3">
-        <v>0.83103691099999999</v>
+        <v>0.80356126019104002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>1E-4</v>
+        <v>0.3</v>
       </c>
       <c r="B8" s="4">
-        <v>0.83039205900000002</v>
+        <v>0.79810000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>0.1</v>
+        <v>1E-4</v>
       </c>
       <c r="B9" s="4">
-        <v>0.82990266300000004</v>
+        <v>0.79537979999999997</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="B10" s="4">
-        <v>0.82466187599999996</v>
+        <v>0.77156241199999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="B11" s="3">
-        <v>0.81694187900000004</v>
+        <v>0.74838211600000004</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="4">
-        <v>0.81451496000000001</v>
+        <v>0.69259372799999996</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B13" s="3">
-        <v>0.79104700299999997</v>
+        <v>0.69190870000000004</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,47 +3486,47 @@
         <v>1E-3</v>
       </c>
       <c r="B14" s="4">
-        <v>0.77156241199999998</v>
+        <v>0.68018109400000004</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3">
-        <v>0.73442755800000004</v>
+        <v>0.59362596999999995</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="B16" s="3">
-        <v>0.69259372799999996</v>
+        <v>0.53364979099999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="B17" s="3">
-        <v>0.69190870000000004</v>
+        <v>0.528675354573935</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="B18" s="3">
-        <v>0.59362596999999995</v>
+        <v>0.45131596299999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1E-4</v>
+        <v>0.2</v>
       </c>
       <c r="B19" s="3">
-        <v>0.53364979099999998</v>
+        <v>0.28040999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3394,26 +3556,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0.85760374100000003</v>
+        <v>0.83946288700000005</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0.84788548200000002</v>
+        <v>0.83039205900000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>0.84419357399999995</v>
+        <v>0.82990266300000004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,55 +3583,55 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>0.83946288700000005</v>
+        <v>0.82466187599999996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>0.83219158999999998</v>
+        <v>0.81451496000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>0.83103691099999999</v>
+        <v>0.80356126019104002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>0.83039205900000002</v>
+        <v>0.79810000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4">
-        <v>0.82990266300000004</v>
+        <v>0.79537979999999997</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>0.82466187599999996</v>
+        <v>0.77156241199999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>0.81694187900000004</v>
+        <v>0.74838211600000004</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3477,15 +3639,15 @@
         <v>1</v>
       </c>
       <c r="B12" s="4">
-        <v>0.81451496000000001</v>
+        <v>0.69259372799999996</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>0.79104700299999997</v>
+        <v>0.69190870000000004</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3493,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="4">
-        <v>0.77156241199999998</v>
+        <v>0.68018109400000004</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3501,39 +3663,39 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>0.73442755800000004</v>
+        <v>0.59362596999999995</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3">
-        <v>0.69259372799999996</v>
+        <v>0.53364979099999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3">
-        <v>0.69190870000000004</v>
+        <v>0.528675354573935</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>0.59362596999999995</v>
+        <v>0.45131596299999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3">
-        <v>0.53364979099999998</v>
+        <v>0.28040999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/CW2/CSV/Final hyperparameters for each setting.xlsx
+++ b/CW2/CSV/Final hyperparameters for each setting.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Masters Program Study\Neural Computation\NeuralComp-Coursework-main\NeuralComp-Coursework-main\CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1950A29-C7A2-4260-BDBF-41D4ADA15097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042BAE9C-E1BF-40C3-A6CC-A0129670BA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75BE8319-9FC6-4AD4-9872-3EC84876900D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Learning Rate v Performance" sheetId="2" r:id="rId2"/>
-    <sheet name="Batch Size v Performance" sheetId="3" r:id="rId3"/>
+    <sheet name="Learning Rate v Performance" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Batch Size v Performance" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$A$1:$E$19</definedName>
@@ -110,10 +110,10 @@
     <t>Epoch</t>
   </si>
   <si>
-    <t>pk</t>
+    <t>Current Final</t>
   </si>
   <si>
-    <t>Current Final</t>
+    <t>Best models run for 25 epochs</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,19 +141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,38 +210,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2631,8 +2606,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{477A38C5-54A8-4CA5-A09E-C290888FDD8F}" name="Table1" displayName="Table1" ref="H8:L11" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="H8:L11" xr:uid="{ACCD2CB4-79F1-4F9B-9BE9-99E6F7AF4968}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{477A38C5-54A8-4CA5-A09E-C290888FDD8F}" name="Table1" displayName="Table1" ref="H2:L5" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="H2:L5" xr:uid="{ACCD2CB4-79F1-4F9B-9BE9-99E6F7AF4968}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D68026F6-84EA-4C33-8C8E-238A0847004E}" name="Epoch" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{5AC9EE0A-3C75-46B2-BC2C-50DCA36BC052}" name="name" dataDxfId="4"/>
@@ -2943,9 +2918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A07864-8660-46CF-89FD-EFA4988D50A6}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2978,59 +2951,108 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="7">
         <v>10</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="9">
         <v>0.83946288700000005</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="8">
         <v>0.3</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="7">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="9">
         <v>0.83039205900000002</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="8">
         <v>1E-4</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
+      <c r="H3" s="7">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.836187823310372</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>0.82990266300000004</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>0.1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="H4" s="11">
+        <v>25</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.85176200000000002</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3050,6 +3072,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="5"/>
+      <c r="H5" s="7">
+        <v>25</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.84106423299999999</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3070,19 +3107,19 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0.80356126019104002</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>0.2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3102,21 +3139,6 @@
       <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3134,19 +3156,6 @@
       <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="16">
-        <v>25</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="15">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -3164,65 +3173,32 @@
       <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="16">
-        <v>25</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0.85176200000000002</v>
-      </c>
-      <c r="K10" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="L10" s="16">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>0.74838211600000004</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>0.1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>2</v>
-      </c>
-      <c r="H11" s="12">
-        <v>25</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0.84106423299999999</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="L11" s="15">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>0.69259372799999996</v>
       </c>
       <c r="D12" s="3">
@@ -3236,10 +3212,10 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>0.69190870000000004</v>
       </c>
       <c r="D13" s="3">
@@ -3250,19 +3226,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>0.68018109400000004</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>1E-3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3270,10 +3246,10 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>0.59362596999999995</v>
       </c>
       <c r="D15" s="3">
@@ -3287,10 +3263,10 @@
       <c r="A16" s="1">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>0.53364979099999998</v>
       </c>
       <c r="D16" s="3">
@@ -3301,53 +3277,53 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>0.528675354573935</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>0.1</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>0.45131596299999999</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0.01</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="1">
         <v>10</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>0.43164000000000002</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>0.2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="1">
         <v>2</v>
       </c>
     </row>

--- a/CW2/CSV/Final hyperparameters for each setting.xlsx
+++ b/CW2/CSV/Final hyperparameters for each setting.xlsx
@@ -8,19 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Masters Program Study\Neural Computation\NeuralComp-Coursework-main\NeuralComp-Coursework-main\CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042BAE9C-E1BF-40C3-A6CC-A0129670BA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91BCC2B-F250-452D-8200-E6D79B52F07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75BE8319-9FC6-4AD4-9872-3EC84876900D}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75BE8319-9FC6-4AD4-9872-3EC84876900D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Learning Rate v Performance" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Batch Size v Performance" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Graphs" sheetId="5" r:id="rId3"/>
+    <sheet name="Learning Rate v Performance" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Batch Size v Performance" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Graphs!$A$1:$D$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$A$1:$E$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -110,10 +116,118 @@
     <t>Epoch</t>
   </si>
   <si>
-    <t>Current Final</t>
+    <t>Final</t>
   </si>
   <si>
     <t>Best models run for 25 epochs</t>
+  </si>
+  <si>
+    <t>Top 3</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Loss Function</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Mean Dice</t>
+  </si>
+  <si>
+    <t>Validation Loss</t>
+  </si>
+  <si>
+    <t>Tversky</t>
+  </si>
+  <si>
+    <t>ADAM</t>
+  </si>
+  <si>
+    <t>RELU</t>
+  </si>
+  <si>
+    <t>batch dice for best</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.7459336393087277</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.9214786760885275</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.9284237726098191</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.8587543718052192</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.9260903754879659</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.9244557776141041</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.7017284557049056</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.876941329448731</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.8164790787887045</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.8645257860889956</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.8925308118078137</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.8649326207621754</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.8629693464018632</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.8146493968999996</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.8282446678715308</t>
+  </si>
+  <si>
+    <t>&lt;- best</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.863612163913884</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.860285894572796</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.5017186919961155</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.6989017732913082</t>
+  </si>
+  <si>
+    <t>batch_dice: 0.8551845484498263</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of Mean Dice</t>
   </si>
 </sst>
 </file>
@@ -123,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +245,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -195,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,27 +338,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -269,6 +408,662 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Dice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.618944308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70883711800000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71576497500000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77970075699999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78586782499999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83039205900000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A160-45FB-8E6F-E32BBF205A8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="385126416"/>
+        <c:axId val="385131336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="385126416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385131336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="385131336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385126416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$M$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Dice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$L$12:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$M$12:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.151861317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.745676491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78540599600000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83039205900000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E2C-450A-BFE8-CA0A255CFEE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="385130680"/>
+        <c:axId val="385124776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="385130680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385124776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="385124776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385130680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -828,7 +1623,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1491,6 +2286,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2523,7 +3398,1116 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26317092-C25D-4124-B8BF-3B9FFDD1BF66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB4FA4C-6650-4E99-A5CB-DFF2F5EDC094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2564,7 +4548,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2603,6 +4587,242 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44182.763258217594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="24" xr:uid="{60F095C6-092C-4591-AAE5-8EDE65C4C35A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D25" sheet="Graphs"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Learning Rate" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1E-4" maxValue="0.1" count="4">
+        <n v="0.1"/>
+        <n v="0.01"/>
+        <n v="1E-3"/>
+        <n v="1E-4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Batch Size" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="32"/>
+    </cacheField>
+    <cacheField name="Epochs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Mean Dice" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.83039205900000002"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="24">
+  <r>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="32"/>
+    <n v="10"/>
+    <n v="0.609672714"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="32"/>
+    <n v="10"/>
+    <n v="0.58250793899999997"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="32"/>
+    <n v="10"/>
+    <n v="0.618944308"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="10"/>
+    <n v="0.70295875299999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="16"/>
+    <n v="10"/>
+    <n v="0.71570050200000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="16"/>
+    <n v="10"/>
+    <n v="0.70883711800000004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="1.9327647999999999E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="0.71519143299999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="0.78080993700000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="0.71576497500000003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="0.163810395"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="0.66983108999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="0.79495298400000003"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="10"/>
+    <n v="0.77970075699999997"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="1.8342093E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="0.71500793399999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="0.79850012199999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="0.78586782499999996"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="0.151861317"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="0.745676491"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="0.78540599600000005"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="0.83039205900000002"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3948122F-0A59-48D2-8098-005DBC6124AA}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K23:L28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Mean Dice" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2918,7 +5138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A07864-8660-46CF-89FD-EFA4988D50A6}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2956,19 +5178,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="12">
         <v>0.83946288700000005</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>0.3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="13">
         <v>1</v>
       </c>
       <c r="H2" t="s">
@@ -2988,70 +5210,71 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="10">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>0.83039205900000002</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>1E-4</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="H3" s="7">
+      <c r="G3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="10">
+        <v>25</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="12">
         <v>0.836187823310372</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="11">
         <v>0.1</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="10">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="12">
         <v>0.82990266300000004</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>0.1</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="13">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G4" s="16"/>
+      <c r="H4" s="14">
         <v>25</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="15">
         <v>0.85176200000000002</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="14">
         <v>1E-4</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="14">
         <v>1</v>
       </c>
     </row>
@@ -3072,19 +5295,20 @@
         <v>1</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="H5" s="7">
+      <c r="G5" s="16"/>
+      <c r="H5" s="10">
         <v>25</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="12">
         <v>0.84106423299999999</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="11">
         <v>0.3</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3139,6 +5363,21 @@
       <c r="E8" s="1">
         <v>4</v>
       </c>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3155,6 +5394,24 @@
       </c>
       <c r="E9" s="1">
         <v>4</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="14">
+        <v>25</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.85176200000000002</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3333,6 +5590,9 @@
       <sortCondition descending="1" ref="C1:C19"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="G3:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -3342,6 +5602,1283 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A35A394-3552-458B-8FD5-CFCCE8AFFA1D}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>0.151861317</v>
+      </c>
+      <c r="H2">
+        <v>-0.51859575999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>1.8342093E-2</v>
+      </c>
+      <c r="H3">
+        <v>-0.41304000000000002</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>0.163810395</v>
+      </c>
+      <c r="H4">
+        <v>-0.71318316000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>1.9327647999999999E-2</v>
+      </c>
+      <c r="H5">
+        <v>-0.49706513000000002</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-0.50570689999999996</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.1</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.01</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>0.745676491</v>
+      </c>
+      <c r="H8">
+        <v>-0.80628869999999997</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.01</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>0.71500793399999996</v>
+      </c>
+      <c r="H9">
+        <v>-0.76853570000000004</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.01</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>0.66983108999999996</v>
+      </c>
+      <c r="H10">
+        <v>-0.75169609999999998</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.01</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>0.71519143299999999</v>
+      </c>
+      <c r="H11">
+        <v>-0.75259469999999995</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.01</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>0.70295875299999999</v>
+      </c>
+      <c r="H12">
+        <v>-0.78686655000000005</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.01</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>0.609672714</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1E-3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>0.78540599600000005</v>
+      </c>
+      <c r="H14">
+        <v>-0.82697759999999998</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1E-3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>0.79850012199999998</v>
+      </c>
+      <c r="H15">
+        <v>-0.8479044</v>
+      </c>
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1E-3</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>0.79495298400000003</v>
+      </c>
+      <c r="H16">
+        <v>-0.85100439999999999</v>
+      </c>
+      <c r="N16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1E-3</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>0.78080993700000001</v>
+      </c>
+      <c r="H17">
+        <v>-0.77759624000000005</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1E-3</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>0.71570050200000002</v>
+      </c>
+      <c r="H18">
+        <v>-0.52590599999999998</v>
+      </c>
+      <c r="N18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1E-3</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>0.58250793899999997</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20">
+        <v>0.83039205900000002</v>
+      </c>
+      <c r="H20">
+        <v>-0.73717350000000004</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>0.78586782499999996</v>
+      </c>
+      <c r="H21">
+        <v>-0.48383340000000002</v>
+      </c>
+      <c r="N21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1E-4</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22">
+        <v>0.77970075699999997</v>
+      </c>
+      <c r="H22">
+        <v>-0.39524302</v>
+      </c>
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1E-4</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>0.71576497500000003</v>
+      </c>
+      <c r="H23">
+        <v>-0.36082946999999999</v>
+      </c>
+      <c r="N23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1E-4</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <v>0.70883711800000004</v>
+      </c>
+      <c r="H24">
+        <v>-0.33221927000000001</v>
+      </c>
+      <c r="N24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1E-4</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25">
+        <v>0.618944308</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B9F1D6-F4EB-4173-AEA2-5328D988590C}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1E-4</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B3" s="1">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.609672714</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.58250793899999997</v>
+      </c>
+      <c r="K4">
+        <v>1E-4</v>
+      </c>
+      <c r="L4">
+        <v>32</v>
+      </c>
+      <c r="M4">
+        <v>0.618944308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.618944308</v>
+      </c>
+      <c r="K5">
+        <v>1E-4</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>0.70883711800000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1E-4</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>0.71576497500000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0.70295875299999999</v>
+      </c>
+      <c r="K7">
+        <v>1E-4</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0.77970075699999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.71570050200000002</v>
+      </c>
+      <c r="K8">
+        <v>1E-4</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0.78586782499999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.70883711800000004</v>
+      </c>
+      <c r="K9">
+        <v>1E-4</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.83039205900000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1.9327647999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.71519143299999999</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.78080993700000001</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.1</v>
+      </c>
+      <c r="M12">
+        <v>0.151861317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0.71576497500000003</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.01</v>
+      </c>
+      <c r="M13">
+        <v>0.745676491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0.163810395</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1E-3</v>
+      </c>
+      <c r="M14">
+        <v>0.78540599600000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0.66983108999999996</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1E-4</v>
+      </c>
+      <c r="M15">
+        <v>0.83039205900000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0.79495298400000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0.77970075699999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>1.8342093E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0.71500793399999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0.79850012199999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0.78586782499999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>0.151861317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>0.745676491</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0.78540599600000005</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="L24" s="19">
+        <v>0.7399178403333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0.83039205900000002</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="L25" s="19">
+        <v>0.74297957999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="L26" s="19">
+        <v>0.6930564025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="19">
+        <v>5.8890242166666662E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="19">
+        <v>0.55871101625000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D25" xr:uid="{D5F1AC71-3DF3-4E01-8292-1F8E09867003}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
+      <sortCondition descending="1" ref="B1:B25"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12239CD-B5DB-4199-A7F3-83625A35EDCE}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -3511,7 +7048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196651C-D734-4F65-9975-26568E24B11B}">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/CW2/CSV/Final hyperparameters for each setting.xlsx
+++ b/CW2/CSV/Final hyperparameters for each setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Masters Program Study\Neural Computation\NeuralComp-Coursework-main\NeuralComp-Coursework-main\CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91BCC2B-F250-452D-8200-E6D79B52F07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6305225E-95D8-4385-9932-D6CFD1C6D53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75BE8319-9FC6-4AD4-9872-3EC84876900D}"/>
   </bookViews>
@@ -254,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,6 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,20 +836,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Graphs!$L$12:$L$16</c:f>
+              <c:f>Graphs!$L$12:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -850,20 +863,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Graphs!$M$12:$M$16</c:f>
+              <c:f>Graphs!$M$12:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.151861317</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.68018109400000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70921857945370403</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.745676491</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.78540599600000005</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.83039205900000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -872,7 +891,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E2C-450A-BFE8-CA0A255CFEE8}"/>
+              <c16:uniqueId val="{00000000-8F01-4C03-A21B-BDB703807004}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -884,11 +903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385130680"/>
-        <c:axId val="385124776"/>
+        <c:axId val="376500256"/>
+        <c:axId val="376492384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385130680"/>
+        <c:axId val="376500256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,12 +964,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385124776"/>
+        <c:crossAx val="376492384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385124776"/>
+        <c:axId val="376492384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385130680"/>
+        <c:crossAx val="376500256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4471,22 +4490,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB4FA4C-6650-4E99-A5CB-DFF2F5EDC094}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CBD65B-0460-4016-A23E-9E2BE70FB383}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5178,19 +5197,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <v>0.83946288700000005</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>0.3</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="14">
         <v>1</v>
       </c>
       <c r="H2" t="s">
@@ -5210,71 +5229,71 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>0.83039205900000002</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>1E-4</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>25</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="13">
         <v>0.836187823310372</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="12">
         <v>0.1</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>0.82990266300000004</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>0.1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="14">
+      <c r="G4" s="17"/>
+      <c r="H4" s="15">
         <v>25</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="16">
         <v>0.85176200000000002</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="15">
         <v>1E-4</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="15">
         <v>1</v>
       </c>
     </row>
@@ -5295,20 +5314,20 @@
         <v>1</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="10">
+      <c r="G5" s="17"/>
+      <c r="H5" s="11">
         <v>25</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="13">
         <v>0.84106423299999999</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>0.3</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="14">
         <v>1</v>
       </c>
     </row>
@@ -5398,19 +5417,19 @@
       <c r="G9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="15">
         <v>25</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="16">
         <v>0.85176200000000002</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="15">
         <v>1E-4</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="15">
         <v>1</v>
       </c>
     </row>
@@ -5606,7 +5625,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G25"/>
+      <selection activeCell="D15" sqref="D15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6339,9 +6358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B9F1D6-F4EB-4173-AEA2-5328D988590C}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6633,10 +6650,10 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.01</v>
-      </c>
-      <c r="M13">
-        <v>0.745676491</v>
+        <v>0.06</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.68018109400000004</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6656,10 +6673,10 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1E-3</v>
+        <v>0.03</v>
       </c>
       <c r="M14">
-        <v>0.78540599600000005</v>
+        <v>0.70921857945370403</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -6679,10 +6696,10 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="M15">
-        <v>0.83039205900000002</v>
+        <v>0.745676491</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -6698,8 +6715,17 @@
       <c r="D16">
         <v>0.79495298400000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1E-3</v>
+      </c>
+      <c r="M16">
+        <v>0.78540599600000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1E-4</v>
       </c>
@@ -6712,8 +6738,17 @@
       <c r="D17">
         <v>0.77970075699999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1E-4</v>
+      </c>
+      <c r="M17">
+        <v>0.83039205900000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.1</v>
       </c>
@@ -6727,7 +6762,7 @@
         <v>1.8342093E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.01</v>
       </c>
@@ -6741,7 +6776,7 @@
         <v>0.71500793399999996</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1E-3</v>
       </c>
@@ -6755,7 +6790,7 @@
         <v>0.79850012199999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1E-4</v>
       </c>
@@ -6769,7 +6804,7 @@
         <v>0.78586782499999996</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.1</v>
       </c>
@@ -6783,7 +6818,7 @@
         <v>0.151861317</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.01</v>
       </c>
@@ -6796,14 +6831,14 @@
       <c r="D23">
         <v>0.745676491</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="18" t="s">
         <v>58</v>
       </c>
       <c r="L23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1E-3</v>
       </c>
@@ -6816,14 +6851,14 @@
       <c r="D24">
         <v>0.78540599600000005</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="19">
         <v>1E-4</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="20">
         <v>0.7399178403333333</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1E-4</v>
       </c>
@@ -6836,34 +6871,34 @@
       <c r="D25">
         <v>0.83039205900000002</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="19">
         <v>1E-3</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="20">
         <v>0.74297957999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K26" s="18">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="19">
         <v>0.01</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="20">
         <v>0.6930564025</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K27" s="18">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K27" s="19">
         <v>0.1</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="20">
         <v>5.8890242166666662E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K28" s="18" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K28" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="20">
         <v>0.55871101625000008</v>
       </c>
     </row>
